--- a/cases/NorthSea/Networks/ImportLimits.xlsx
+++ b/cases/NorthSea/Networks/ImportLimits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E2D07E-826C-430D-9B19-18986067D994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783E5909-756C-419C-811C-2A698BD38C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,6 +565,7 @@
     <sheetNames>
       <sheetName val="Carriers"/>
       <sheetName val="Nodes"/>
+      <sheetName val="NodeTranslation"/>
       <sheetName val="Nodes_used"/>
     </sheetNames>
     <sheetDataSet>
@@ -572,146 +573,147 @@
       <sheetData sheetId="1">
         <row r="2">
           <cell r="A2" t="str">
-            <v>NL_on_North</v>
+            <v>onNL_NE</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>NL_on_South</v>
+            <v>onNL_SE</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>NL_on_Holland_N</v>
+            <v>onNL_NW</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>NL_on_Holland_S</v>
+            <v>onNL_SW</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>NL_on_Brabant</v>
+            <v>onNL_CE</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>NL_on_Borssele</v>
+            <v>onNL_SW</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>NL_on_Rilland</v>
+            <v>onNL_CW</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>NL_on_East</v>
+            <v>onNL_E</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>BE00</v>
+            <v>onBE</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>DE00</v>
+            <v>onDE</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>UK00</v>
+            <v>onUK</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>NOS0</v>
+            <v>onNOS</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>DKW1</v>
+            <v>onDKW</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>IJmuiden Ver Beta</v>
+            <v>ofNL_IJ_B</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>IJmuiden Ver Alpha</v>
+            <v>ofNL_IJ_A</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Borssele Alpha</v>
+            <v>ofNL_BO_A</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>Borssele Beta</v>
+            <v>ofNL_BO_B</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Egmon aan Zee</v>
+            <v>ofNL_EG</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>Prinses Amalia</v>
+            <v>ofNL_PA</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Luchterduinen</v>
+            <v>ofNL_LU</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Gemini II</v>
+            <v>ofNL_GE_B</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Gemini I</v>
+            <v>ofNL_GE_A</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Hollands Kust Zuid Beta</v>
+            <v>ofNL_KZ_B</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Hollands Kust Zuid Alpha</v>
+            <v>ofNL_KZ_A</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Hollands Kust Noord</v>
+            <v>ofNL_KN</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Hollands Kust West Alpha</v>
+            <v>ofNL_KW_A</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Hollands Kust West Beta</v>
+            <v>ofNL_KW_B</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>IJmuiden Ver Gamma</v>
+            <v>ofNL_IJ_G</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -983,7 +985,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1010,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A29">[1]Nodes!$A$2:$A$29</f>
-        <v>NL_on_North</v>
+        <v>onNL_NE</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1016,7 +1018,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <v>NL_on_South</v>
+        <v>onNL_SE</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1024,7 +1026,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <v>NL_on_Holland_N</v>
+        <v>onNL_NW</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1032,7 +1034,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <v>NL_on_Holland_S</v>
+        <v>onNL_SW</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1040,7 +1042,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <v>NL_on_Brabant</v>
+        <v>onNL_CE</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1048,7 +1050,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <v>NL_on_Borssele</v>
+        <v>onNL_SW</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1056,7 +1058,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <v>NL_on_Rilland</v>
+        <v>onNL_CW</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1064,7 +1066,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <v>NL_on_East</v>
+        <v>onNL_E</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1072,7 +1074,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <v>BE00</v>
+        <v>onBE</v>
       </c>
       <c r="B10">
         <f>Data!B13</f>
@@ -1081,7 +1083,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <v>DE00</v>
+        <v>onDE</v>
       </c>
       <c r="B11">
         <f>Data!B5+Data!B7+Data!B8+Data!B15+Data!B29+Data!B45+Data!B50</f>
@@ -1090,7 +1092,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <v>UK00</v>
+        <v>onUK</v>
       </c>
       <c r="B12">
         <f>Data!B19+Data!B23+Data!B33</f>
@@ -1099,7 +1101,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <v>NOS0</v>
+        <v>onNOS</v>
       </c>
       <c r="B13">
         <f>Data!B41+Data!B54+1375</f>
@@ -1111,7 +1113,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <v>DKW1</v>
+        <v>onDKW</v>
       </c>
       <c r="B14">
         <f>Data!B51</f>
@@ -1120,7 +1122,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <v>IJmuiden Ver Beta</v>
+        <v>ofNL_IJ_B</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1128,7 +1130,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <v>IJmuiden Ver Alpha</v>
+        <v>ofNL_IJ_A</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1136,7 +1138,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <v>Borssele Alpha</v>
+        <v>ofNL_BO_A</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1144,7 +1146,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <v>Borssele Beta</v>
+        <v>ofNL_BO_B</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1152,7 +1154,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <v>Egmon aan Zee</v>
+        <v>ofNL_EG</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1160,7 +1162,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <v>Prinses Amalia</v>
+        <v>ofNL_PA</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1168,7 +1170,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <v>Luchterduinen</v>
+        <v>ofNL_LU</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1176,7 +1178,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <v>Gemini II</v>
+        <v>ofNL_GE_B</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1184,7 +1186,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <v>Gemini I</v>
+        <v>ofNL_GE_A</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1192,7 +1194,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <v>Hollands Kust Zuid Beta</v>
+        <v>ofNL_KZ_B</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1200,7 +1202,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <v>Hollands Kust Zuid Alpha</v>
+        <v>ofNL_KZ_A</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1208,7 +1210,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <v>Hollands Kust Noord</v>
+        <v>ofNL_KN</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1216,7 +1218,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <v>Hollands Kust West Alpha</v>
+        <v>ofNL_KW_A</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1224,7 +1226,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <v>Hollands Kust West Beta</v>
+        <v>ofNL_KW_B</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1232,7 +1234,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <v>IJmuiden Ver Gamma</v>
+        <v>ofNL_IJ_G</v>
       </c>
       <c r="B29">
         <v>0</v>

--- a/cases/NorthSea/Networks/ImportLimits.xlsx
+++ b/cases/NorthSea/Networks/ImportLimits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783E5909-756C-419C-811C-2A698BD38C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C858FBAC-6369-48AE-B00B-95E75FFE29FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ToPython" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
       <sheetName val="Nodes_used"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="A2" t="str">
@@ -588,7 +588,7 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>onNL_SW</v>
+            <v>onNL_W</v>
           </cell>
         </row>
         <row r="6">
@@ -712,8 +712,20 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Node</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>onNL_NE</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -985,7 +997,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1046,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B5">
         <v>0</v>
